--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_161.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_161.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3541666666666666</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_184</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.172360248447205</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
+          <t>[['B', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(55.68, 62.28)]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:00.444363', '0:00:11.013666')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:57.673129', '0:01:03.489727')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3071428571428572</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
-        </is>
+          <t>isophonics_34</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1326086956521739</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(45.522, 50.551)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.34, 36.3)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.203125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C', 'F']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(80.956, 85.176)]</t>
+          <t>[['G:7', 'C', 'C'], ['D:7', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(45.474603, 48.945986)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:03:47.620000', '0:03:55.060000'), ('0:00:54.260000', '0:01:01.020000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:12.030000', '0:00:14.360000'), ('0:00:22.890000', '0:00:24.460000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07595948827292111</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E/3', 'E/4', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3238636363636364</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'D/b7', 'G/3']]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(65.559465, 69.714376)]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(22.484897, 26.15365)]</t>
+          <t>[('0:00:16.260000', '0:00:19.340000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06030444964871194</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb:7', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1026785714285714</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'Bb:7', 'Bb:7']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01), (8.5, 12.95)]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1), (22.85, 27.37)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:00.740000', '0:00:21.500000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:19.000294', '0:00:29.309954')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(20.648911, 28.810725)]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.14, 12.14)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(63.24, 64.62), (63.84, 66.8)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.6, 9.94), (30.94, 40.54)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1102453580901857</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5515151515151515</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.44, 23.42)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.6, 8.74)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2072072072072072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(7.56, 16.36)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1596638655462185</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(91.834264, 98.974002)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.64, 23.48)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(43.74, 55.62)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.02, 10.62)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(33.0, 48.22)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(18.16, 47.44)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68), (22.18, 25.4)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(23.3, 29.36), (261.68, 266.9)]</t>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1026315789473684</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(135.68755, 139.228594)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.421247, 6.206099)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B'], ['G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(19.36, 21.74), (19.96, 22.38)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61), (33.48, 42.01)]</t>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_166</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.28125</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D/2']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(52.196388, 57.251357)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(19.139614, 27.777437)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
